--- a/Texts/Сюжетные сцены/Глава 2.xlsx
+++ b/Texts/Сюжетные сцены/Глава 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1411">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -1395,9 +1395,6 @@
     <t>[CN]И Чудо-Карта...</t>
   </si>
   <si>
-    <t>[CN]И Сумка с Ценностями!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Да! Здесь столько хороших\nвещичек!</t>
   </si>
   <si>
@@ -1413,18 +1410,9 @@
     <t xml:space="preserve"> Также, я даю вам чудесно\nудобную Чудо-Карту!</t>
   </si>
   <si>
-    <t xml:space="preserve"> И наконец, Сумка с Ценностями.[K]\nОна позволит вам носить вещи, которые вы\nбудете находить в подземельях.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Это очень чудесная сумка! ♪</t>
   </si>
   <si>
-    <t xml:space="preserve"> Загляните внутрь Сумки с\nЦенностями.</t>
-  </si>
-  <si>
-    <t>[CN][partner] заглядывает в\n[CN]Сумку с Ценностями.</t>
-  </si>
-  <si>
     <t>[CN]Внутри лежит\n[CN][s_item:0]!</t>
   </si>
   <si>
@@ -1584,9 +1572,6 @@
     <t>[CN]É Œôäï-Ëàñóà...</t>
   </si>
   <si>
-    <t>[CN]É Òôíëà ò Øåîîïòóÿíé!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Äà! Èäåòû òóïìûëï öïñïšéö\nâåþéœåë!</t>
   </si>
   <si>
@@ -1602,18 +1587,9 @@
     <t xml:space="preserve"> Óàëçå, ÿ äàý âàí œôäåòîï\nôäïáîôý Œôäï-Ëàñóô!</t>
   </si>
   <si>
-    <t xml:space="preserve"> É îàëïîåø, Òôíëà ò Øåîîïòóÿíé.[K]\nÏîà ðïèâïìéó âàí îïòéóû âåþé, ëïóïñúå âú\náôäåóå îàöïäéóû â ðïäèåíåìûÿö.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Üóï ïœåîû œôäåòîàÿ òôíëà! ♪</t>
   </si>
   <si>
-    <t xml:space="preserve"> Èàãìÿîéóå âîôóñû Òôíëé ò\nØåîîïòóÿíé.</t>
-  </si>
-  <si>
-    <t>[CN][partner] èàãìÿäúâàåó â\n[CN]Òôíëô ò Øåîîïòóÿíé.</t>
-  </si>
-  <si>
     <t>[CN]Âîôóñé ìåçéó\n[CN][s_item:0]!</t>
   </si>
   <si>
@@ -1701,12 +1677,6 @@
     <t>[CN][partner] ïóëñúâàåó Îàáïñ\n[CN]Ðïëåíïîïâ-Éòòìåäïâàóåìåê.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Чем больше успехов вы будете\nсовершать, тем больше и больше места\nбудет в вашей Сумке с Ценностями.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Œåí áïìûšå ôòðåöïâ âú áôäåóå\nòïâåñšàóû, óåí áïìûšå é áïìûšå íåòóà\náôäåó â âàšåê Òôíëå ò Øåîîïòóÿíé.</t>
-  </si>
-  <si>
     <t>SCRIPT/G01P07A/m02a0111.ssb</t>
   </si>
   <si>
@@ -4072,6 +4042,216 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïòìå œåãï, îåïáöïäéíï\nóñåîéñïâàóûòÿ, œóïáú òóàóû ðåñâïëìàòòîïê\nëïíàîäïê éòòìåäïâàóåìåê.</t>
+  </si>
+  <si>
+    <t>[CN]И Сумка для Ценностей!</t>
+  </si>
+  <si>
+    <t>[CN]É Òôíëà äìÿ Øåîîïòóåê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É îàëïîåø, Òôíëà äìÿ Øåîîïòóåê.[K]\nÏîà ðïèâïìéó âàí îïòéóû âåþé, ëïóïñúå âú\náôäåóå îàöïäéóû â ðïäèåíåìûÿö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И наконец, Сумка для Ценностей.[K]\nОна позволит вам носить вещи, которые вы\nбудете находить в подземельях.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œåí áïìûšå ôòðåöïâ âú áôäåóå\nòïâåñšàóû, óåí áïìûšå é áïìûšå íåòóà\náôäåó â âàšåê Òôíëå äìÿ Øåîîïòóåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чем больше успехов вы будете\nсовершать, тем больше и больше места\nбудет в вашей Сумке для Ценностей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàãìÿîéóå âîôóñû Òôíëé äìÿ\nØåîîïòóåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Загляните внутрь Сумки для\nЦенностей.</t>
+  </si>
+  <si>
+    <t>[CN][partner] заглядывает в\n[CN]Сумку для Ценностей.</t>
+  </si>
+  <si>
+    <t>[CN][partner] èàãìÿäúâàåó â\n[CN]Òôíëô äìÿ Øåîîïòóåê.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07C/m02a0601.ssb</t>
+  </si>
+  <si>
+    <t>Вы провалили задание дважды</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get some sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should get some sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why don\'t we get some sleep?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, beginners!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Before you go to bed, our\nGuildmaster wants to speak with you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай поспим.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно поспать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Может, лучше ляжем спать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, новички!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прежде чем вы ляжете спать, наш\nГильдмастер хочет поговорить с вами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê ðïòðéí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïòðàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåó, ìôœšå ìÿçåí òðàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, îïâéœëé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñåçäå œåí âú ìÿçåóå òðàóû, îàš\nÃéìûäíàòóåñ öïœåó ðïãïâïñéóû ò âàíé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04C/m02a0602.ssb</t>
+  </si>
+  <si>
+    <t>Вы стоите перед комнатой Гильдмастера</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now, this could just be a wild\nguess on my part, but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would guess that it\'s because\nyou fail so often. Our Guildmaster must be\nseething with anger over you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Guildmaster is truly a\nterror when enraged…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So watch yourself and do your\nbest to avoid displeasing our Guildmaster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Конечно, это всего лишь моё личное\nпредположение, но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я полагаю, это всё из-за того,\nчто вы слишком часто терпите неудачи.\nВозможно, Гильдмастер очень зол на вас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А наш Гильдмастер по настоящему\nстрашен в гневе...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому следите за языками и\nочень постарайтесь не прогневать нашего\nГильдмастера.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïîåœîï, üóï âòåãï ìéšû íïæ ìéœîïå\nðñåäðïìïçåîéå, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïìàãàý, üóï âòæ éè-èà óïãï,\nœóï âú òìéšëïí œàòóï óåñðéóå îåôäàœé.\nÂïèíïçîï, Ãéìûäíàòóåñ ïœåîû èïì îà âàò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À îàš Ãéìûäíàòóåñ ðï îàòóïÿþåíô\nòóñàšåî â ãîåâå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô òìåäéóå èà ÿèúëàíé é\nïœåîû ðïòóàñàêóåòû îå ðñïãîåâàóû îàšåãï\nÃéìûäíàòóåñà.</t>
+  </si>
+  <si>
+    <t>Вы у Гильдмастера</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05C/m02a0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guildmaster, I\'ve brought you\nTeam [team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guildmaster...[K] Guildmaster?\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Job not going well? That stinks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s why I\'m giving you these!</t>
+  </si>
+  <si>
+    <t>[CN][CS:N]Wigglytuff[CR] gave you\n[CN]a [CS:I]Reviver Seed[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]In addition, he also gave you an [CS:I]Oran Berry[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Incredibly, he also gave you a [CS:I]Max Elixir[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Those items I gave you are all\nvery useful in dungeons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please give it your best effort\nagain tomorrow!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гильдмастер, я привёл вам Команду\n[team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гильдмастер...[K] Гильдмастер?\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Работа не спорится? Непорядок!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно поэтому я даю вам вот\nэти вещи!</t>
+  </si>
+  <si>
+    <t>[CN][CS:N]Виглитафф[CR] дал вам\n[CN][CS:I]Зерно Оживления[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Кроме того, он дал вам\n[CS:I]Пельси Ягоду[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Невероятно, он также дал вам\n[CN][CS:I]Макс. Эликсир[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эти вещи, что я вам дал, очень\nполезны в подземельях.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пожалуйста, приложите все свои\nусилия, чтобы выполнить задание!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãéìûäíàòóåñ, ÿ ðñéâæì âàí Ëïíàîäô\n[team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãéìûäíàòóåñ...[K] Ãéìûäíàòóåñ?\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàáïóà îå òðïñéóòÿ? Îåðïñÿäïë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï ðïüóïíô ÿ äàý âàí âïó\nüóé âåþé!</t>
+  </si>
+  <si>
+    <t>[CN][CS:N]Âéãìéóàõõ[CR] äàì âàí\n[CN][CS:I]Èåñîï Ïçéâìåîéÿ[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ëñïíå óïãï, ïî äàì âàí\n[CS:I]Ðåìûòé Ÿãïäô[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Îåâåñïÿóîï, ïî óàëçå äàì âàí\n[CN][CS:I]Íàëò. Üìéëòéñ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóé âåþé, œóï ÿ âàí äàì, ïœåîû\nðïìåèîú â ðïäèåíåìûÿö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïçàìôêòóà, ðñéìïçéóå âòå òâïé\nôòéìéÿ, œóïáú âúðïìîéóû èàäàîéå!</t>
   </si>
 </sst>
 </file>
@@ -4375,7 +4555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4597,6 +4777,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4879,10 +5062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H415"/>
+  <dimension ref="A1:H434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5011,10 +5194,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>11</v>
@@ -6634,10 +6817,10 @@
         <v>354</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -6655,7 +6838,7 @@
         <v>430</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6673,7 +6856,7 @@
         <v>431</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6686,10 +6869,10 @@
         <v>360</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6705,7 +6888,7 @@
         <v>432</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6721,7 +6904,7 @@
         <v>433</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6737,7 +6920,7 @@
         <v>434</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6753,7 +6936,7 @@
         <v>435</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6769,7 +6952,7 @@
         <v>436</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6785,7 +6968,7 @@
         <v>437</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6801,7 +6984,7 @@
         <v>438</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6817,7 +7000,7 @@
         <v>439</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6833,7 +7016,7 @@
         <v>440</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6849,7 +7032,7 @@
         <v>441</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -6865,7 +7048,7 @@
         <v>442</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6881,7 +7064,7 @@
         <v>443</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6897,7 +7080,7 @@
         <v>444</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6913,7 +7096,7 @@
         <v>445</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6931,7 +7114,7 @@
         <v>446</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -6947,7 +7130,7 @@
         <v>447</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -6963,7 +7146,7 @@
         <v>448</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6979,7 +7162,7 @@
         <v>449</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6995,7 +7178,7 @@
         <v>450</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7011,7 +7194,7 @@
         <v>451</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7027,7 +7210,7 @@
         <v>452</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7043,7 +7226,7 @@
         <v>453</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7061,7 +7244,7 @@
         <v>454</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7077,7 +7260,7 @@
         <v>455</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7090,10 +7273,10 @@
         <v>389</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7109,7 +7292,7 @@
         <v>456</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7125,7 +7308,7 @@
         <v>457</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7138,10 +7321,10 @@
         <v>392</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>458</v>
+        <v>1341</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>521</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7154,10 +7337,10 @@
         <v>393</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7170,10 +7353,10 @@
         <v>394</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7186,10 +7369,10 @@
         <v>395</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7204,10 +7387,10 @@
         <v>396</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7220,10 +7403,10 @@
         <v>397</v>
       </c>
       <c r="E139" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7236,10 +7419,10 @@
         <v>398</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>464</v>
+        <v>1344</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>527</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7252,10 +7435,10 @@
         <v>399</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>560</v>
+        <v>1346</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>561</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7268,13 +7451,13 @@
         <v>400</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A143" s="27"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22">
@@ -7284,10 +7467,10 @@
         <v>401</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>466</v>
+        <v>1348</v>
       </c>
       <c r="F143" s="24" t="s">
-        <v>529</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7300,10 +7483,10 @@
         <v>402</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>467</v>
+        <v>1349</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>530</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -7316,10 +7499,10 @@
         <v>403</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7332,10 +7515,10 @@
         <v>404</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -7350,10 +7533,10 @@
         <v>405</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7366,10 +7549,10 @@
         <v>406</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7382,10 +7565,10 @@
         <v>407</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7400,10 +7583,10 @@
         <v>409</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7416,10 +7599,10 @@
         <v>410</v>
       </c>
       <c r="E151" s="23" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,10 +7615,10 @@
         <v>412</v>
       </c>
       <c r="E152" s="23" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -7448,10 +7631,10 @@
         <v>413</v>
       </c>
       <c r="E153" s="23" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7464,10 +7647,10 @@
         <v>414</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7480,10 +7663,10 @@
         <v>416</v>
       </c>
       <c r="E155" s="23" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7496,10 +7679,10 @@
         <v>417</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7512,10 +7695,10 @@
         <v>418</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7528,10 +7711,10 @@
         <v>419</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7544,10 +7727,10 @@
         <v>420</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7560,10 +7743,10 @@
         <v>421</v>
       </c>
       <c r="E160" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7576,10 +7759,10 @@
         <v>422</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7592,10 +7775,10 @@
         <v>423</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7608,10 +7791,10 @@
         <v>424</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7624,10 +7807,10 @@
         <v>425</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7640,10 +7823,10 @@
         <v>426</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7656,10 +7839,10 @@
         <v>427</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7672,10 +7855,10 @@
         <v>428</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7688,30 +7871,30 @@
         <v>429</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="36" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C169" s="17">
         <v>13</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -7721,13 +7904,13 @@
         <v>62</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -7737,13 +7920,13 @@
         <v>66</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E171" s="23" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -7753,13 +7936,13 @@
         <v>70</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E172" s="23" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7771,13 +7954,13 @@
         <v>85</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E173" s="23" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7787,13 +7970,13 @@
         <v>88</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E174" s="23" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F174" s="24" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7803,33 +7986,33 @@
         <v>91</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="35" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C176" s="17">
         <v>10</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7839,13 +8022,13 @@
         <v>14</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7855,13 +8038,13 @@
         <v>17</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -7871,13 +8054,13 @@
         <v>76</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -7887,13 +8070,13 @@
         <v>80</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7903,13 +8086,13 @@
         <v>84</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E181" s="23" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7919,13 +8102,13 @@
         <v>91</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7935,13 +8118,13 @@
         <v>95</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7951,13 +8134,13 @@
         <v>99</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7967,13 +8150,13 @@
         <v>105</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="E185" s="23" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7983,13 +8166,13 @@
         <v>109</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7999,13 +8182,13 @@
         <v>113</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F187" s="24" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8015,13 +8198,13 @@
         <v>119</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E188" s="23" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8031,13 +8214,13 @@
         <v>123</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E189" s="23" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F189" s="24" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8047,13 +8230,13 @@
         <v>127</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E190" s="23" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F190" s="24" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8063,13 +8246,13 @@
         <v>133</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E191" s="23" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F191" s="24" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8079,13 +8262,13 @@
         <v>137</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E192" s="23" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8095,13 +8278,13 @@
         <v>141</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E193" s="23" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8111,13 +8294,13 @@
         <v>147</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8127,13 +8310,13 @@
         <v>151</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E195" s="23" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8143,13 +8326,13 @@
         <v>155</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E196" s="23" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -8159,29 +8342,29 @@
         <v>162</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="25"/>
       <c r="C198" s="22" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8191,29 +8374,29 @@
         <v>176</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F199" s="24" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="25"/>
       <c r="C200" s="22" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -8223,13 +8406,13 @@
         <v>190</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F201" s="24" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -8239,13 +8422,13 @@
         <v>194</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="F202" s="24" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -8255,45 +8438,45 @@
         <v>198</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" s="29"/>
       <c r="C204" s="22" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E204" s="23" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" s="29"/>
       <c r="C205" s="22" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E205" s="23" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8303,13 +8486,13 @@
         <v>231</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8319,29 +8502,29 @@
         <v>235</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" s="29"/>
       <c r="C208" s="49" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E208" s="23" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8351,45 +8534,45 @@
         <v>249</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E209" s="23" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F209" s="24" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" s="29"/>
       <c r="C210" s="22" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E210" s="23" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F210" s="24" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" s="29"/>
       <c r="C211" s="22" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E211" s="23" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -8399,13 +8582,13 @@
         <v>275</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E212" s="23" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="F212" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -8415,13 +8598,13 @@
         <v>279</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F213" s="24" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8431,13 +8614,13 @@
         <v>285</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E214" s="23" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F214" s="24" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8447,97 +8630,97 @@
         <v>289</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E215" s="23" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F215" s="24" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" s="29"/>
       <c r="C216" s="22" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E216" s="23" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F216" s="24" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" s="29"/>
       <c r="C217" s="22" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" s="29"/>
       <c r="C218" s="22" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E218" s="23" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="F218" s="24" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="51"/>
       <c r="B219" s="52"/>
       <c r="C219" s="32" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D219" s="33" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F219" s="34" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="35" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C220" s="17">
         <v>5</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="E220" s="18" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="F220" s="19" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -8549,13 +8732,13 @@
         <v>12</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E221" s="23" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F221" s="24" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -8565,45 +8748,45 @@
         <v>17</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E222" s="23" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="F222" s="24" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" s="29"/>
       <c r="C223" s="22" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E223" s="23" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F223" s="24" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" s="29"/>
       <c r="C224" s="22" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="F224" s="24" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8613,13 +8796,13 @@
         <v>158</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8631,13 +8814,13 @@
         <v>87</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="F226" s="24" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -8647,13 +8830,13 @@
         <v>97</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -8663,29 +8846,29 @@
         <v>110</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F228" s="24" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="25"/>
       <c r="C229" s="22" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E229" s="23" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -8697,13 +8880,13 @@
         <v>136</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E230" s="23" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F230" s="24" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8713,13 +8896,13 @@
         <v>139</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E231" s="23" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="F231" s="24" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8729,13 +8912,13 @@
         <v>143</v>
       </c>
       <c r="D232" s="23" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E232" s="23" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8745,13 +8928,13 @@
         <v>146</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="E233" s="23" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="F233" s="24" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8761,13 +8944,13 @@
         <v>155</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E234" s="23" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F234" s="24" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8777,13 +8960,13 @@
         <v>172</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E235" s="23" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="F235" s="24" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -8793,13 +8976,13 @@
         <v>198</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F236" s="24" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8809,13 +8992,13 @@
         <v>201</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="F237" s="24" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -8825,93 +9008,93 @@
         <v>204</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E238" s="23" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F238" s="24" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="25"/>
       <c r="C239" s="22" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E239" s="23" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="25"/>
       <c r="C240" s="22" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F240" s="24" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="25"/>
       <c r="C241" s="22" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="25"/>
       <c r="C242" s="22" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E242" s="23" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F242" s="24" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="25"/>
       <c r="C243" s="22" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="E243" s="23" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8921,13 +9104,13 @@
         <v>327</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E244" s="23" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F244" s="24" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8937,13 +9120,13 @@
         <v>331</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E245" s="23" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8953,33 +9136,33 @@
         <v>335</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E246" s="33" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F246" s="34" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="36" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C247" s="17">
         <v>101</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="E247" s="18" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F247" s="19" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -8991,13 +9174,13 @@
         <v>153</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="E248" s="23" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F248" s="24" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -9007,13 +9190,13 @@
         <v>156</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="E249" s="23" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F249" s="24" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -9025,13 +9208,13 @@
         <v>165</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="E250" s="23" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -9043,13 +9226,13 @@
         <v>186</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="E251" s="23" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F251" s="24" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9059,13 +9242,13 @@
         <v>189</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="F252" s="24" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9075,13 +9258,13 @@
         <v>197</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9091,13 +9274,13 @@
         <v>245</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="F254" s="24" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -9109,31 +9292,31 @@
         <v>250</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="E255" s="23" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F255" s="24" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A256" s="54" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B256" s="21"/>
       <c r="C256" s="22">
         <v>256</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E256" s="23" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="F256" s="24" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9143,13 +9326,13 @@
         <v>259</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="E257" s="23" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F257" s="24" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9159,31 +9342,31 @@
         <v>262</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="E258" s="23" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="F258" s="24" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A259" s="54" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B259" s="21"/>
       <c r="C259" s="22">
         <v>265</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E259" s="23" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F259" s="24" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9195,13 +9378,13 @@
         <v>280</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E260" s="23" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9211,13 +9394,13 @@
         <v>300</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E261" s="23" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9227,31 +9410,31 @@
         <v>303</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E262" s="23" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="F262" s="24" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A263" s="54" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B263" s="21"/>
       <c r="C263" s="22">
         <v>308</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E263" s="23" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F263" s="24" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9261,13 +9444,13 @@
         <v>325</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="E264" s="23" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9277,13 +9460,13 @@
         <v>353</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E265" s="23" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F265" s="24" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9293,13 +9476,13 @@
         <v>381</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="E266" s="23" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="F266" s="24" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -9311,51 +9494,51 @@
         <v>399</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E267" s="23" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F267" s="24" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="55" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B268" s="31"/>
       <c r="C268" s="32">
         <v>465</v>
       </c>
       <c r="D268" s="33" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="E268" s="33" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="F268" s="34" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="36" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C269" s="17">
         <v>32</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E269" s="18" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9365,33 +9548,33 @@
         <v>38</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E270" s="33" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F270" s="34" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="36" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C271" s="17">
         <v>49</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="F271" s="19" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9401,13 +9584,13 @@
         <v>52</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E272" s="23" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="F272" s="24" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9417,13 +9600,13 @@
         <v>60</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E273" s="23" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="F273" s="24" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9433,61 +9616,61 @@
         <v>68</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E274" s="23" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F274" s="24" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="25"/>
       <c r="C275" s="22" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E275" s="23" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20"/>
       <c r="B276" s="25"/>
       <c r="C276" s="22" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E276" s="23" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="28"/>
       <c r="B277" s="29"/>
       <c r="C277" s="22" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="E277" s="23" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="F277" s="24" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9497,45 +9680,45 @@
         <v>165</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E278" s="23" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A279" s="28"/>
       <c r="B279" s="29"/>
       <c r="C279" s="22" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E279" s="23" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="28"/>
       <c r="B280" s="29"/>
       <c r="C280" s="22" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="E280" s="23" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9547,13 +9730,13 @@
         <v>145</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="E281" s="23" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9563,13 +9746,13 @@
         <v>148</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="E282" s="23" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9579,13 +9762,13 @@
         <v>151</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="E283" s="23" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9595,13 +9778,13 @@
         <v>154</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="E284" s="23" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -9611,13 +9794,13 @@
         <v>161</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E285" s="23" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -9627,141 +9810,141 @@
         <v>225</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="E286" s="23" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F286" s="24" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="25"/>
       <c r="C287" s="22" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E287" s="23" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20"/>
       <c r="B288" s="25"/>
       <c r="C288" s="22" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E288" s="23" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="25"/>
       <c r="C289" s="22" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E289" s="23" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A290" s="20"/>
       <c r="B290" s="25"/>
       <c r="C290" s="22" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E290" s="23" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="25"/>
       <c r="C291" s="22" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D291" s="23" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E291" s="23" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="F291" s="24" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A292" s="20"/>
       <c r="B292" s="25"/>
       <c r="C292" s="22" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="D292" s="23" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="E292" s="23" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="25"/>
       <c r="C293" s="22" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D293" s="23" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E293" s="23" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20"/>
       <c r="B294" s="25"/>
       <c r="C294" s="22" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="D294" s="23" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="E294" s="23" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F294" s="24" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9773,13 +9956,13 @@
         <v>320</v>
       </c>
       <c r="D295" s="23" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="E295" s="23" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="F295" s="24" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9789,13 +9972,13 @@
         <v>333</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E296" s="23" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="F296" s="24" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9805,13 +9988,13 @@
         <v>336</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="E297" s="23" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9821,13 +10004,13 @@
         <v>345</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="E298" s="23" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -9837,13 +10020,13 @@
         <v>362</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="E299" s="23" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="F299" s="24" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -9853,47 +10036,47 @@
         <v>402</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="E300" s="23" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="F300" s="24" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="25"/>
       <c r="C301" s="22" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F301" s="24" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="56" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="B302" s="21"/>
       <c r="C302" s="22">
         <v>415</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E302" s="23" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9903,13 +10086,13 @@
         <v>418</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="F303" s="24" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9919,13 +10102,13 @@
         <v>421</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E304" s="23" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="F304" s="24" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9935,13 +10118,13 @@
         <v>424</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="E305" s="23" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="F305" s="24" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9951,13 +10134,13 @@
         <v>427</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E306" s="23" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F306" s="24" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9967,13 +10150,13 @@
         <v>430</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="E307" s="23" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="F307" s="24" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9983,13 +10166,13 @@
         <v>433</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="E308" s="23" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="F308" s="24" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9999,13 +10182,13 @@
         <v>436</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E309" s="23" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="F309" s="24" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10015,13 +10198,13 @@
         <v>439</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="F310" s="24" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -10031,13 +10214,13 @@
         <v>446</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E311" s="23" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F311" s="24" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -10047,13 +10230,13 @@
         <v>454</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="F312" s="24" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10063,29 +10246,29 @@
         <v>470</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E313" s="23" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="F313" s="24" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="25"/>
       <c r="C314" s="22" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E314" s="23" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F314" s="24" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -10095,13 +10278,13 @@
         <v>489</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="E315" s="23" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F315" s="24" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10111,13 +10294,13 @@
         <v>493</v>
       </c>
       <c r="D316" s="23" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="E316" s="23" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F316" s="24" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10127,29 +10310,29 @@
         <v>497</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E317" s="23" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F317" s="24" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="25"/>
       <c r="C318" s="22" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="F318" s="24" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -10161,29 +10344,29 @@
         <v>532</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F319" s="24" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="B320" s="25"/>
       <c r="C320" s="22" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="D320" s="23" t="s">
         <v>163</v>
       </c>
       <c r="E320" s="23" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="F320" s="24" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10195,13 +10378,13 @@
         <v>558</v>
       </c>
       <c r="D321" s="23" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E321" s="23" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="F321" s="24" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10211,13 +10394,13 @@
         <v>561</v>
       </c>
       <c r="D322" s="23" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E322" s="23" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="F322" s="24" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10227,13 +10410,13 @@
         <v>564</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E323" s="23" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F323" s="24" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10243,13 +10426,13 @@
         <v>567</v>
       </c>
       <c r="D324" s="23" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="E324" s="23" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="F324" s="24" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10259,13 +10442,13 @@
         <v>583</v>
       </c>
       <c r="D325" s="23" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="E325" s="23" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="F325" s="24" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10275,33 +10458,33 @@
         <v>597</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="E326" s="33" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="F326" s="34" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" s="66" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="C327" s="17">
         <v>9</v>
       </c>
       <c r="D327" s="18" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="E327" s="18" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F327" s="19" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10311,13 +10494,13 @@
         <v>12</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="E328" s="23" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="F328" s="24" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10327,31 +10510,31 @@
         <v>15</v>
       </c>
       <c r="D329" s="23" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="E329" s="23" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="F329" s="24" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="67" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B330" s="25"/>
       <c r="C330" s="22" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D330" s="23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E330" s="23" t="s">
         <v>1083</v>
       </c>
-      <c r="D330" s="23" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E330" s="23" t="s">
-        <v>1093</v>
-      </c>
       <c r="F330" s="24" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10361,13 +10544,13 @@
         <v>210</v>
       </c>
       <c r="D331" s="23" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E331" s="23" t="s">
         <v>1084</v>
       </c>
-      <c r="E331" s="23" t="s">
-        <v>1094</v>
-      </c>
       <c r="F331" s="24" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10377,13 +10560,13 @@
         <v>78</v>
       </c>
       <c r="D332" s="23" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E332" s="23" t="s">
         <v>1085</v>
       </c>
-      <c r="E332" s="23" t="s">
-        <v>1095</v>
-      </c>
       <c r="F332" s="24" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10393,13 +10576,13 @@
         <v>82</v>
       </c>
       <c r="D333" s="23" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E333" s="23" t="s">
         <v>1086</v>
       </c>
-      <c r="E333" s="23" t="s">
-        <v>1096</v>
-      </c>
       <c r="F333" s="24" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10409,49 +10592,49 @@
         <v>86</v>
       </c>
       <c r="D334" s="23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E334" s="23" t="s">
         <v>1087</v>
       </c>
-      <c r="E334" s="23" t="s">
-        <v>1097</v>
-      </c>
       <c r="F334" s="24" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="58"/>
       <c r="B335" s="59"/>
       <c r="C335" s="60" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D335" s="61" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E335" s="61" t="s">
         <v>1088</v>
       </c>
-      <c r="D335" s="61" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E335" s="61" t="s">
-        <v>1098</v>
-      </c>
       <c r="F335" s="68" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="67" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B336" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D336" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E336" s="23" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F336" s="24" t="s">
         <v>1108</v>
-      </c>
-      <c r="C336" s="22" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D336" s="23" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E336" s="23" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F336" s="24" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10461,13 +10644,13 @@
         <v>44</v>
       </c>
       <c r="D337" s="23" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="E337" s="23" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F337" s="24" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10477,13 +10660,13 @@
         <v>48</v>
       </c>
       <c r="D338" s="23" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="E338" s="23" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F338" s="24" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10493,33 +10676,33 @@
         <v>52</v>
       </c>
       <c r="D339" s="61" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="E339" s="61" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="F339" s="68" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A340" s="70" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B340" s="63" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="C340" s="64">
         <v>9</v>
       </c>
       <c r="D340" s="65" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="E340" s="65" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="F340" s="71" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -10529,13 +10712,13 @@
         <v>21</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="E341" s="23" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="F341" s="24" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -10545,13 +10728,13 @@
         <v>25</v>
       </c>
       <c r="D342" s="23" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="E342" s="23" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="F342" s="24" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -10561,13 +10744,13 @@
         <v>29</v>
       </c>
       <c r="D343" s="23" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="E343" s="23" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="F343" s="24" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10579,29 +10762,29 @@
         <v>51</v>
       </c>
       <c r="D344" s="23" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="E344" s="23" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="F344" s="24" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
       <c r="B345" s="25"/>
       <c r="C345" s="22" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="D345" s="23" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="E345" s="23" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="F345" s="24" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10613,13 +10796,13 @@
         <v>80</v>
       </c>
       <c r="D346" s="23" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="E346" s="23" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F346" s="24" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10629,31 +10812,31 @@
         <v>88</v>
       </c>
       <c r="D347" s="61" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="E347" s="61" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="F347" s="68" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="73" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="B348" s="21"/>
       <c r="C348" s="22">
         <v>10</v>
       </c>
       <c r="D348" s="23" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="E348" s="23" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="F348" s="24" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -10663,13 +10846,13 @@
         <v>44</v>
       </c>
       <c r="D349" s="23" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="E349" s="23" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="F349" s="24" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -10679,1077 +10862,1403 @@
         <v>47</v>
       </c>
       <c r="D350" s="23" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="E350" s="23" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="F350" s="24" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="55" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B351" s="31"/>
       <c r="C351" s="32">
         <v>62</v>
       </c>
       <c r="D351" s="33" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="E351" s="33" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="F351" s="34" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A352" s="74" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B352" s="16" t="s">
-        <v>1163</v>
+      <c r="A352" s="37" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B352" s="75" t="s">
+        <v>1351</v>
       </c>
       <c r="C352" s="17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>1125</v>
+        <v>1353</v>
       </c>
       <c r="E352" s="18" t="s">
-        <v>1134</v>
+        <v>1358</v>
       </c>
       <c r="F352" s="19" t="s">
-        <v>1142</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="20"/>
       <c r="B353" s="21"/>
       <c r="C353" s="22">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D353" s="23" t="s">
-        <v>1165</v>
+        <v>1354</v>
       </c>
       <c r="E353" s="23" t="s">
-        <v>1173</v>
+        <v>1359</v>
       </c>
       <c r="F353" s="24" t="s">
-        <v>1181</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="20"/>
+      <c r="A354" s="26"/>
       <c r="B354" s="21"/>
       <c r="C354" s="22">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D354" s="23" t="s">
-        <v>1167</v>
+        <v>1355</v>
       </c>
       <c r="E354" s="23" t="s">
-        <v>1174</v>
+        <v>1360</v>
       </c>
       <c r="F354" s="24" t="s">
-        <v>1182</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="26"/>
+      <c r="A355" s="27" t="s">
+        <v>232</v>
+      </c>
       <c r="B355" s="21"/>
       <c r="C355" s="22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D355" s="23" t="s">
-        <v>1168</v>
+        <v>1356</v>
       </c>
       <c r="E355" s="23" t="s">
-        <v>1175</v>
+        <v>1361</v>
       </c>
       <c r="F355" s="24" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A356" s="20"/>
-      <c r="B356" s="21"/>
-      <c r="C356" s="22">
-        <v>94</v>
-      </c>
-      <c r="D356" s="23" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E356" s="23" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F356" s="24" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A357" s="20"/>
-      <c r="B357" s="21"/>
-      <c r="C357" s="22">
-        <v>98</v>
-      </c>
-      <c r="D357" s="23" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E357" s="23" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F357" s="24" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A358" s="26"/>
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="30"/>
+      <c r="B356" s="31"/>
+      <c r="C356" s="32">
+        <v>55</v>
+      </c>
+      <c r="D356" s="33" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E356" s="33" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F356" s="34" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A357" s="36" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C357" s="17">
+        <v>13</v>
+      </c>
+      <c r="D357" s="18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E357" s="18" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F357" s="19" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A358" s="27" t="s">
+        <v>232</v>
+      </c>
       <c r="B358" s="21"/>
       <c r="C358" s="22">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="D358" s="23" t="s">
-        <v>1166</v>
+        <v>1371</v>
       </c>
       <c r="E358" s="23" t="s">
-        <v>1176</v>
+        <v>1375</v>
       </c>
       <c r="F358" s="24" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="20"/>
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="27"/>
       <c r="B359" s="21"/>
       <c r="C359" s="22">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D359" s="23" t="s">
-        <v>1170</v>
+        <v>1372</v>
       </c>
       <c r="E359" s="23" t="s">
-        <v>1178</v>
+        <v>1376</v>
       </c>
       <c r="F359" s="24" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A360" s="20"/>
-      <c r="B360" s="21"/>
-      <c r="C360" s="22">
-        <v>112</v>
-      </c>
-      <c r="D360" s="23" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E360" s="23" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F360" s="24" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="53"/>
-      <c r="B361" s="31"/>
-      <c r="C361" s="32">
-        <v>116</v>
-      </c>
-      <c r="D361" s="33" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E361" s="33" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F361" s="34" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="36" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B362" s="16" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C362" s="17">
-        <v>14</v>
-      </c>
-      <c r="D362" s="18" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E362" s="18" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F362" s="19" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="30"/>
+      <c r="B360" s="31"/>
+      <c r="C360" s="32">
+        <v>33</v>
+      </c>
+      <c r="D360" s="33" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E360" s="33" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F360" s="34" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A361" s="36" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C361" s="17">
+        <v>13</v>
+      </c>
+      <c r="D361" s="18" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E361" s="18" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F361" s="19" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B362" s="21"/>
+      <c r="C362" s="22">
+        <v>26</v>
+      </c>
+      <c r="D362" s="23" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E362" s="23" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F362" s="24" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="27" t="s">
-        <v>1194</v>
+        <v>378</v>
       </c>
       <c r="B363" s="21"/>
       <c r="C363" s="22">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>1193</v>
+        <v>358</v>
       </c>
       <c r="E363" s="23" t="s">
-        <v>1227</v>
+        <v>431</v>
       </c>
       <c r="F363" s="24" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="27"/>
       <c r="B364" s="21"/>
       <c r="C364" s="22">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D364" s="23" t="s">
-        <v>1195</v>
+        <v>1386</v>
       </c>
       <c r="E364" s="23" t="s">
-        <v>1228</v>
+        <v>1395</v>
       </c>
       <c r="F364" s="24" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="27"/>
       <c r="B365" s="21"/>
       <c r="C365" s="22">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D365" s="23" t="s">
-        <v>1196</v>
+        <v>1387</v>
       </c>
       <c r="E365" s="23" t="s">
-        <v>1229</v>
+        <v>1396</v>
       </c>
       <c r="F365" s="24" t="s">
-        <v>1258</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A366" s="27"/>
+      <c r="A366" s="46"/>
       <c r="B366" s="21"/>
       <c r="C366" s="22">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D366" s="23" t="s">
-        <v>1197</v>
+        <v>1388</v>
       </c>
       <c r="E366" s="23" t="s">
-        <v>1230</v>
+        <v>1397</v>
       </c>
       <c r="F366" s="24" t="s">
-        <v>1259</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A367" s="27"/>
+      <c r="A367" s="46"/>
       <c r="B367" s="21"/>
       <c r="C367" s="22">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D367" s="23" t="s">
-        <v>1198</v>
+        <v>1389</v>
       </c>
       <c r="E367" s="23" t="s">
-        <v>1231</v>
+        <v>1398</v>
       </c>
       <c r="F367" s="24" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="27"/>
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A368" s="46"/>
       <c r="B368" s="21"/>
       <c r="C368" s="22">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D368" s="23" t="s">
-        <v>1199</v>
+        <v>1390</v>
       </c>
       <c r="E368" s="23" t="s">
-        <v>1232</v>
+        <v>1399</v>
       </c>
       <c r="F368" s="24" t="s">
-        <v>1261</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A369" s="46"/>
+      <c r="A369" s="27" t="s">
+        <v>378</v>
+      </c>
       <c r="B369" s="21"/>
       <c r="C369" s="22">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D369" s="23" t="s">
-        <v>1200</v>
+        <v>1391</v>
       </c>
       <c r="E369" s="23" t="s">
-        <v>1233</v>
+        <v>1400</v>
       </c>
       <c r="F369" s="24" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A370" s="46"/>
-      <c r="B370" s="21"/>
-      <c r="C370" s="22">
-        <v>55</v>
-      </c>
-      <c r="D370" s="23" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E370" s="23" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F370" s="24" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="46"/>
-      <c r="B371" s="21"/>
-      <c r="C371" s="22">
-        <v>63</v>
-      </c>
-      <c r="D371" s="23" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E371" s="23" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F371" s="24" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A372" s="46"/>
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="30"/>
+      <c r="B370" s="31"/>
+      <c r="C370" s="32">
+        <v>115</v>
+      </c>
+      <c r="D370" s="33" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E370" s="33" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F370" s="34" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A371" s="74" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C371" s="17">
+        <v>9</v>
+      </c>
+      <c r="D371" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E371" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F371" s="19" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="20"/>
       <c r="B372" s="21"/>
       <c r="C372" s="22">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>1203</v>
+        <v>1155</v>
       </c>
       <c r="E372" s="23" t="s">
-        <v>1236</v>
+        <v>1163</v>
       </c>
       <c r="F372" s="24" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="20"/>
       <c r="B373" s="21"/>
-      <c r="C373" s="22" t="s">
-        <v>1206</v>
+      <c r="C373" s="22">
+        <v>56</v>
       </c>
       <c r="D373" s="23" t="s">
-        <v>1204</v>
+        <v>1157</v>
       </c>
       <c r="E373" s="23" t="s">
-        <v>1237</v>
+        <v>1164</v>
       </c>
       <c r="F373" s="24" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="26"/>
       <c r="B374" s="21"/>
       <c r="C374" s="22">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D374" s="23" t="s">
-        <v>1205</v>
+        <v>1158</v>
       </c>
       <c r="E374" s="23" t="s">
-        <v>1238</v>
+        <v>1165</v>
       </c>
       <c r="F374" s="24" t="s">
-        <v>1267</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A375" s="27" t="s">
-        <v>1194</v>
-      </c>
+      <c r="A375" s="20"/>
       <c r="B375" s="21"/>
       <c r="C375" s="22">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D375" s="23" t="s">
-        <v>1207</v>
+        <v>1156</v>
       </c>
       <c r="E375" s="23" t="s">
-        <v>1239</v>
+        <v>1166</v>
       </c>
       <c r="F375" s="24" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="27"/>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="20"/>
       <c r="B376" s="21"/>
       <c r="C376" s="22">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>1208</v>
+        <v>1159</v>
       </c>
       <c r="E376" s="23" t="s">
-        <v>1240</v>
+        <v>1167</v>
       </c>
       <c r="F376" s="24" t="s">
-        <v>1269</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A377" s="20"/>
+      <c r="A377" s="26"/>
       <c r="B377" s="21"/>
       <c r="C377" s="22">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="D377" s="23" t="s">
-        <v>1209</v>
+        <v>1156</v>
       </c>
       <c r="E377" s="23" t="s">
-        <v>1241</v>
+        <v>1166</v>
       </c>
       <c r="F377" s="24" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="20"/>
       <c r="B378" s="21"/>
       <c r="C378" s="22">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="D378" s="23" t="s">
-        <v>1210</v>
+        <v>1160</v>
       </c>
       <c r="E378" s="23" t="s">
-        <v>1242</v>
+        <v>1168</v>
       </c>
       <c r="F378" s="24" t="s">
-        <v>1271</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A379" s="26"/>
+      <c r="A379" s="20"/>
       <c r="B379" s="21"/>
       <c r="C379" s="22">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="D379" s="23" t="s">
-        <v>1211</v>
+        <v>1161</v>
       </c>
       <c r="E379" s="23" t="s">
-        <v>1243</v>
+        <v>1169</v>
       </c>
       <c r="F379" s="24" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B380" s="21"/>
-      <c r="C380" s="22">
-        <v>169</v>
-      </c>
-      <c r="D380" s="23" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E380" s="23" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F380" s="24" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A381" s="27"/>
-      <c r="B381" s="21"/>
-      <c r="C381" s="22">
-        <v>195</v>
-      </c>
-      <c r="D381" s="23" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E381" s="23" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F381" s="24" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="20"/>
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="53"/>
+      <c r="B380" s="31"/>
+      <c r="C380" s="32">
+        <v>116</v>
+      </c>
+      <c r="D380" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E380" s="33" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F380" s="34" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A381" s="36" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B381" s="16" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C381" s="17">
+        <v>14</v>
+      </c>
+      <c r="D381" s="18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E381" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F381" s="19" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A382" s="27" t="s">
+        <v>1184</v>
+      </c>
       <c r="B382" s="21"/>
-      <c r="C382" s="22" t="s">
-        <v>1215</v>
+      <c r="C382" s="22">
+        <v>17</v>
       </c>
       <c r="D382" s="23" t="s">
-        <v>1214</v>
+        <v>1183</v>
       </c>
       <c r="E382" s="23" t="s">
-        <v>1245</v>
+        <v>1217</v>
       </c>
       <c r="F382" s="24" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="26"/>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A383" s="27"/>
       <c r="B383" s="21"/>
       <c r="C383" s="22">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>1216</v>
+        <v>1185</v>
       </c>
       <c r="E383" s="23" t="s">
-        <v>1246</v>
+        <v>1218</v>
       </c>
       <c r="F383" s="24" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A384" s="27" t="s">
-        <v>232</v>
-      </c>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A384" s="27"/>
       <c r="B384" s="21"/>
       <c r="C384" s="22">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="D384" s="23" t="s">
-        <v>1217</v>
+        <v>1186</v>
       </c>
       <c r="E384" s="23" t="s">
-        <v>1247</v>
+        <v>1219</v>
       </c>
       <c r="F384" s="24" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A385" s="27"/>
       <c r="B385" s="21"/>
       <c r="C385" s="22">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="D385" s="23" t="s">
-        <v>1218</v>
+        <v>1187</v>
       </c>
       <c r="E385" s="23" t="s">
-        <v>1248</v>
+        <v>1220</v>
       </c>
       <c r="F385" s="24" t="s">
-        <v>1277</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A386" s="20"/>
-      <c r="B386" s="25"/>
+      <c r="A386" s="27"/>
+      <c r="B386" s="21"/>
       <c r="C386" s="22">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="D386" s="23" t="s">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="E386" s="23" t="s">
-        <v>1249</v>
+        <v>1221</v>
       </c>
       <c r="F386" s="24" t="s">
-        <v>1278</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="20"/>
+      <c r="A387" s="27"/>
       <c r="B387" s="21"/>
       <c r="C387" s="22">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="D387" s="23" t="s">
-        <v>1220</v>
+        <v>1189</v>
       </c>
       <c r="E387" s="23" t="s">
-        <v>1250</v>
+        <v>1222</v>
       </c>
       <c r="F387" s="24" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="20"/>
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A388" s="46"/>
       <c r="B388" s="21"/>
       <c r="C388" s="22">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="D388" s="23" t="s">
-        <v>1221</v>
+        <v>1190</v>
       </c>
       <c r="E388" s="23" t="s">
-        <v>1251</v>
+        <v>1223</v>
       </c>
       <c r="F388" s="24" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="26"/>
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A389" s="46"/>
       <c r="B389" s="21"/>
       <c r="C389" s="22">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="D389" s="23" t="s">
-        <v>1222</v>
+        <v>1191</v>
       </c>
       <c r="E389" s="23" t="s">
-        <v>1252</v>
+        <v>1224</v>
       </c>
       <c r="F389" s="24" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A390" s="27" t="s">
-        <v>232</v>
-      </c>
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A390" s="46"/>
       <c r="B390" s="21"/>
       <c r="C390" s="22">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="D390" s="23" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="E390" s="23" t="s">
-        <v>1253</v>
+        <v>1225</v>
       </c>
       <c r="F390" s="24" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="39"/>
-      <c r="B391" s="57"/>
-      <c r="C391" s="32" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D391" s="33" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E391" s="33" t="s">
         <v>1254</v>
       </c>
-      <c r="F391" s="34" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A392" s="74" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B392" s="16" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C392" s="17">
-        <v>9</v>
-      </c>
-      <c r="D392" s="18" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E392" s="18" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F392" s="19" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" s="20"/>
+    </row>
+    <row r="391" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A391" s="46"/>
+      <c r="B391" s="21"/>
+      <c r="C391" s="22">
+        <v>71</v>
+      </c>
+      <c r="D391" s="23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E391" s="23" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F391" s="24" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A392" s="20"/>
+      <c r="B392" s="21"/>
+      <c r="C392" s="22" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D392" s="23" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E392" s="23" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F392" s="24" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A393" s="26"/>
       <c r="B393" s="21"/>
       <c r="C393" s="22">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D393" s="23" t="s">
-        <v>1288</v>
+        <v>1195</v>
       </c>
       <c r="E393" s="23" t="s">
-        <v>1309</v>
+        <v>1228</v>
       </c>
       <c r="F393" s="24" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="20"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="27" t="s">
+        <v>1184</v>
+      </c>
       <c r="B394" s="21"/>
       <c r="C394" s="22">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D394" s="23" t="s">
-        <v>1289</v>
+        <v>1197</v>
       </c>
       <c r="E394" s="23" t="s">
-        <v>1310</v>
+        <v>1229</v>
       </c>
       <c r="F394" s="24" t="s">
-        <v>1330</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="26"/>
+      <c r="A395" s="27"/>
       <c r="B395" s="21"/>
       <c r="C395" s="22">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>1290</v>
+        <v>1198</v>
       </c>
       <c r="E395" s="23" t="s">
-        <v>1311</v>
+        <v>1230</v>
       </c>
       <c r="F395" s="24" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A396" s="20"/>
       <c r="B396" s="21"/>
       <c r="C396" s="22">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D396" s="23" t="s">
-        <v>1291</v>
+        <v>1199</v>
       </c>
       <c r="E396" s="23" t="s">
-        <v>1312</v>
+        <v>1231</v>
       </c>
       <c r="F396" s="24" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A397" s="20"/>
       <c r="B397" s="21"/>
       <c r="C397" s="22">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="D397" s="23" t="s">
-        <v>1292</v>
+        <v>1200</v>
       </c>
       <c r="E397" s="23" t="s">
-        <v>1313</v>
+        <v>1232</v>
       </c>
       <c r="F397" s="24" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A398" s="26"/>
       <c r="B398" s="21"/>
       <c r="C398" s="22">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="D398" s="23" t="s">
-        <v>1293</v>
+        <v>1201</v>
       </c>
       <c r="E398" s="23" t="s">
-        <v>1314</v>
+        <v>1233</v>
       </c>
       <c r="F398" s="24" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A399" s="20"/>
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="27" t="s">
+        <v>232</v>
+      </c>
       <c r="B399" s="21"/>
       <c r="C399" s="22">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="D399" s="23" t="s">
-        <v>1294</v>
+        <v>1202</v>
       </c>
       <c r="E399" s="23" t="s">
-        <v>1315</v>
+        <v>1234</v>
       </c>
       <c r="F399" s="24" t="s">
-        <v>1335</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A400" s="20"/>
+      <c r="A400" s="27"/>
       <c r="B400" s="21"/>
       <c r="C400" s="22">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="D400" s="23" t="s">
-        <v>1295</v>
+        <v>1203</v>
       </c>
       <c r="E400" s="23" t="s">
-        <v>1316</v>
+        <v>1274</v>
       </c>
       <c r="F400" s="24" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="26"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="20"/>
       <c r="B401" s="21"/>
-      <c r="C401" s="22">
-        <v>76</v>
+      <c r="C401" s="22" t="s">
+        <v>1205</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>1296</v>
+        <v>1204</v>
       </c>
       <c r="E401" s="23" t="s">
-        <v>1317</v>
+        <v>1235</v>
       </c>
       <c r="F401" s="24" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A402" s="20"/>
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="26"/>
       <c r="B402" s="21"/>
       <c r="C402" s="22">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="D402" s="23" t="s">
-        <v>1297</v>
+        <v>1206</v>
       </c>
       <c r="E402" s="23" t="s">
-        <v>1318</v>
+        <v>1236</v>
       </c>
       <c r="F402" s="24" t="s">
-        <v>1338</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A403" s="20"/>
+      <c r="A403" s="27" t="s">
+        <v>232</v>
+      </c>
       <c r="B403" s="21"/>
       <c r="C403" s="22">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="D403" s="23" t="s">
-        <v>1298</v>
+        <v>1207</v>
       </c>
       <c r="E403" s="23" t="s">
-        <v>1319</v>
+        <v>1237</v>
       </c>
       <c r="F403" s="24" t="s">
-        <v>1339</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A404" s="26"/>
+      <c r="A404" s="27"/>
       <c r="B404" s="21"/>
       <c r="C404" s="22">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="D404" s="23" t="s">
-        <v>1299</v>
+        <v>1208</v>
       </c>
       <c r="E404" s="23" t="s">
-        <v>1320</v>
+        <v>1238</v>
       </c>
       <c r="F404" s="24" t="s">
-        <v>1340</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A405" s="20"/>
-      <c r="B405" s="21"/>
+      <c r="B405" s="25"/>
       <c r="C405" s="22">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="D405" s="23" t="s">
-        <v>1300</v>
+        <v>1209</v>
       </c>
       <c r="E405" s="23" t="s">
-        <v>1321</v>
+        <v>1239</v>
       </c>
       <c r="F405" s="24" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="20"/>
       <c r="B406" s="21"/>
       <c r="C406" s="22">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="D406" s="23" t="s">
-        <v>1300</v>
+        <v>1210</v>
       </c>
       <c r="E406" s="23" t="s">
-        <v>1321</v>
+        <v>1240</v>
       </c>
       <c r="F406" s="24" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A407" s="26"/>
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="20"/>
       <c r="B407" s="21"/>
       <c r="C407" s="22">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="D407" s="23" t="s">
-        <v>1300</v>
+        <v>1211</v>
       </c>
       <c r="E407" s="23" t="s">
-        <v>1321</v>
+        <v>1241</v>
       </c>
       <c r="F407" s="24" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A408" s="20"/>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="26"/>
       <c r="B408" s="21"/>
       <c r="C408" s="22">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="D408" s="23" t="s">
-        <v>1301</v>
+        <v>1212</v>
       </c>
       <c r="E408" s="23" t="s">
-        <v>1322</v>
+        <v>1242</v>
       </c>
       <c r="F408" s="24" t="s">
-        <v>1342</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A409" s="20"/>
+      <c r="A409" s="27" t="s">
+        <v>232</v>
+      </c>
       <c r="B409" s="21"/>
       <c r="C409" s="22">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>1302</v>
+        <v>1213</v>
       </c>
       <c r="E409" s="23" t="s">
-        <v>1323</v>
+        <v>1243</v>
       </c>
       <c r="F409" s="24" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A410" s="26"/>
-      <c r="B410" s="21"/>
-      <c r="C410" s="22">
-        <v>118</v>
-      </c>
-      <c r="D410" s="23" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E410" s="23" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F410" s="24" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" s="20"/>
-      <c r="B411" s="25"/>
-      <c r="C411" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="D411" s="23" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E411" s="23" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F411" s="24" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="39"/>
+      <c r="B410" s="57"/>
+      <c r="C410" s="32" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D410" s="33" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E410" s="33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F410" s="34" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A411" s="74" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C411" s="17">
+        <v>9</v>
+      </c>
+      <c r="D411" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E411" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F411" s="19" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="20"/>
       <c r="B412" s="21"/>
       <c r="C412" s="22">
+        <v>40</v>
+      </c>
+      <c r="D412" s="23" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E412" s="23" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F412" s="24" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="20"/>
+      <c r="B413" s="21"/>
+      <c r="C413" s="22">
+        <v>44</v>
+      </c>
+      <c r="D413" s="23" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E413" s="23" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F413" s="24" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="26"/>
+      <c r="B414" s="21"/>
+      <c r="C414" s="22">
+        <v>48</v>
+      </c>
+      <c r="D414" s="23" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E414" s="23" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F414" s="24" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A415" s="20"/>
+      <c r="B415" s="21"/>
+      <c r="C415" s="22">
+        <v>54</v>
+      </c>
+      <c r="D415" s="23" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E415" s="23" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F415" s="24" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A416" s="20"/>
+      <c r="B416" s="21"/>
+      <c r="C416" s="22">
+        <v>58</v>
+      </c>
+      <c r="D416" s="23" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E416" s="23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F416" s="24" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A417" s="26"/>
+      <c r="B417" s="21"/>
+      <c r="C417" s="22">
+        <v>62</v>
+      </c>
+      <c r="D417" s="23" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E417" s="23" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F417" s="24" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A418" s="20"/>
+      <c r="B418" s="21"/>
+      <c r="C418" s="22">
+        <v>68</v>
+      </c>
+      <c r="D418" s="23" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E418" s="23" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F418" s="24" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A419" s="20"/>
+      <c r="B419" s="21"/>
+      <c r="C419" s="22">
+        <v>72</v>
+      </c>
+      <c r="D419" s="23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E419" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F419" s="24" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A420" s="26"/>
+      <c r="B420" s="21"/>
+      <c r="C420" s="22">
+        <v>76</v>
+      </c>
+      <c r="D420" s="23" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E420" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F420" s="24" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A421" s="20"/>
+      <c r="B421" s="21"/>
+      <c r="C421" s="22">
+        <v>82</v>
+      </c>
+      <c r="D421" s="23" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E421" s="23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F421" s="24" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A422" s="20"/>
+      <c r="B422" s="21"/>
+      <c r="C422" s="22">
+        <v>86</v>
+      </c>
+      <c r="D422" s="23" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E422" s="23" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F422" s="24" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A423" s="26"/>
+      <c r="B423" s="21"/>
+      <c r="C423" s="22">
+        <v>90</v>
+      </c>
+      <c r="D423" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E423" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F423" s="24" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A424" s="20"/>
+      <c r="B424" s="21"/>
+      <c r="C424" s="22">
+        <v>96</v>
+      </c>
+      <c r="D424" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E424" s="23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F424" s="24" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="20"/>
+      <c r="B425" s="21"/>
+      <c r="C425" s="22">
+        <v>100</v>
+      </c>
+      <c r="D425" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E425" s="23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F425" s="24" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A426" s="26"/>
+      <c r="B426" s="21"/>
+      <c r="C426" s="22">
+        <v>104</v>
+      </c>
+      <c r="D426" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E426" s="23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F426" s="24" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A427" s="20"/>
+      <c r="B427" s="21"/>
+      <c r="C427" s="22">
+        <v>110</v>
+      </c>
+      <c r="D427" s="23" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E427" s="23" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F427" s="24" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A428" s="20"/>
+      <c r="B428" s="21"/>
+      <c r="C428" s="22">
+        <v>114</v>
+      </c>
+      <c r="D428" s="23" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E428" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F428" s="24" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A429" s="26"/>
+      <c r="B429" s="21"/>
+      <c r="C429" s="22">
+        <v>118</v>
+      </c>
+      <c r="D429" s="23" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E429" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F429" s="24" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="20"/>
+      <c r="B430" s="25"/>
+      <c r="C430" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D430" s="23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E430" s="23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F430" s="24" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A431" s="20"/>
+      <c r="B431" s="21"/>
+      <c r="C431" s="22">
         <v>140</v>
       </c>
-      <c r="D412" s="23" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E412" s="23" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F412" s="24" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A413" s="20"/>
-      <c r="B413" s="25"/>
-      <c r="C413" s="22" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D413" s="23" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E413" s="23" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F413" s="24" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A414" s="20"/>
-      <c r="B414" s="25"/>
-      <c r="C414" s="22" t="s">
+      <c r="D431" s="23" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E431" s="23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F431" s="24" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="20"/>
+      <c r="B432" s="25"/>
+      <c r="C432" s="22" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D432" s="23" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E432" s="23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F432" s="24" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="20"/>
+      <c r="B433" s="25"/>
+      <c r="C433" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D414" s="23" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E414" s="23" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F414" s="24" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="53"/>
-      <c r="B415" s="31"/>
-      <c r="C415" s="32">
+      <c r="D433" s="23" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E433" s="23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F433" s="24" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="53"/>
+      <c r="B434" s="31"/>
+      <c r="C434" s="32">
         <v>162</v>
       </c>
-      <c r="D415" s="33" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E415" s="33" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F415" s="34" t="s">
-        <v>1348</v>
+      <c r="D434" s="33" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E434" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F434" s="34" t="s">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Сюжетные сцены/Глава 2.xlsx
+++ b/Texts/Сюжетные сцены/Глава 2.xlsx
@@ -1044,9 +1044,6 @@
     <t xml:space="preserve"> Итак, мы у комнаты Гильдмастера\n[CS:N]Виглитаффа[CR].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ни при каких обстоятельствах...[K]\nПодчёркиваю, ни при каких обстоятельствах\nне будьте неучитвы к Гильдмастеру.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Гильдмастер![K] Это [CS:N]Чатот[CR]! ♪\nЯ захожу!</t>
   </si>
   <si>
@@ -1077,9 +1074,6 @@
     <t xml:space="preserve"> Éóàë, íú ô ëïíîàóú Ãéìûäíàòóåñà\n[CS:N]Âéãìéóàõõà[CR].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Îé ðñé ëàëéö ïáòóïÿóåìûòóâàö...[K]\nÐïäœæñëéâàý, îé ðñé ëàëéö ïáòóïÿóåìûòóâàö\nîå áôäûóå îåôœéóâú ë Ãéìûäíàòóåñô.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ãéìûäíàòóåñ![K] Üóï [CS:N]Œàóïó[CR]! ♪\nŸ èàöïçô!</t>
   </si>
   <si>
@@ -4252,6 +4246,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïçàìôêòóà, ðñéìïçéóå âòå òâïé\nôòéìéÿ, œóïáú âúðïìîéóû èàäàîéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ни при каких обстоятельствах...[K]\nПодчёркиваю, ни при каких обстоятельствах\nне будьте неучтивы к Гильдмастеру.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îé ðñé ëàëéö ïáòóïÿóåìûòóâàö...[K]\nÐïäœæñëéâàý, îé ðñé ëàëéö ïáòóïÿóåìûòóâàö\nîå áôäûóå îåôœóéâú ë Ãéìûäíàòóåñô.</t>
   </si>
 </sst>
 </file>
@@ -5064,8 +5064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5194,10 +5194,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>11</v>
@@ -6636,7 +6636,7 @@
         <v>332</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6652,7 +6652,7 @@
         <v>333</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6668,7 +6668,7 @@
         <v>334</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6684,7 +6684,7 @@
         <v>335</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6702,7 +6702,7 @@
         <v>336</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6718,7 +6718,7 @@
         <v>337</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6734,7 +6734,7 @@
         <v>338</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6750,7 +6750,7 @@
         <v>339</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>340</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -6781,10 +6781,10 @@
         <v>330</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>341</v>
+        <v>1409</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>352</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6797,30 +6797,30 @@
         <v>331</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C103" s="17">
         <v>13</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -6832,31 +6832,31 @@
         <v>26</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="22">
         <v>44</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6866,13 +6866,13 @@
         <v>47</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6882,13 +6882,13 @@
         <v>50</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6898,13 +6898,13 @@
         <v>53</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6914,13 +6914,13 @@
         <v>56</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6930,29 +6930,29 @@
         <v>70</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="25"/>
       <c r="C111" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6962,13 +6962,13 @@
         <v>85</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6978,13 +6978,13 @@
         <v>89</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6994,13 +6994,13 @@
         <v>93</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7010,13 +7010,13 @@
         <v>111</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7026,29 +7026,29 @@
         <v>165</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="25"/>
       <c r="C117" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7058,13 +7058,13 @@
         <v>169</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7074,13 +7074,13 @@
         <v>173</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7090,31 +7090,31 @@
         <v>177</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A121" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="22">
         <v>192</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E121" s="23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -7124,13 +7124,13 @@
         <v>195</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -7140,13 +7140,13 @@
         <v>198</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E123" s="23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -7156,13 +7156,13 @@
         <v>202</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7172,13 +7172,13 @@
         <v>227</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7188,13 +7188,13 @@
         <v>230</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7204,47 +7204,47 @@
         <v>245</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="25"/>
       <c r="C128" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A129" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="22">
         <v>283</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7254,13 +7254,13 @@
         <v>286</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7270,13 +7270,13 @@
         <v>316</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7286,13 +7286,13 @@
         <v>331</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7302,13 +7302,13 @@
         <v>337</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7318,13 +7318,13 @@
         <v>343</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7334,13 +7334,13 @@
         <v>351</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7350,13 +7350,13 @@
         <v>355</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7366,31 +7366,31 @@
         <v>359</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A138" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B138" s="21"/>
       <c r="C138" s="22">
         <v>365</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7400,13 +7400,13 @@
         <v>368</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E139" s="23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7416,13 +7416,13 @@
         <v>371</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7432,13 +7432,13 @@
         <v>374</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7448,13 +7448,13 @@
         <v>377</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7464,13 +7464,13 @@
         <v>380</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F143" s="24" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7480,13 +7480,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -7496,13 +7496,13 @@
         <v>413</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7512,31 +7512,31 @@
         <v>422</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="22">
         <v>433</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7546,63 +7546,63 @@
         <v>436</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="25"/>
       <c r="C149" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A150" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B150" s="21"/>
       <c r="C150" s="22">
         <v>469</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="B151" s="25"/>
       <c r="C151" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E151" s="23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7612,29 +7612,29 @@
         <v>502</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E152" s="23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="B153" s="25"/>
       <c r="C153" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E153" s="23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7644,13 +7644,13 @@
         <v>562</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7660,13 +7660,13 @@
         <v>573</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E155" s="23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7676,13 +7676,13 @@
         <v>584</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7692,13 +7692,13 @@
         <v>595</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7708,13 +7708,13 @@
         <v>606</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7724,13 +7724,13 @@
         <v>617</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7740,13 +7740,13 @@
         <v>628</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E160" s="23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7756,13 +7756,13 @@
         <v>639</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7772,13 +7772,13 @@
         <v>650</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7788,13 +7788,13 @@
         <v>661</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7804,13 +7804,13 @@
         <v>672</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7820,13 +7820,13 @@
         <v>683</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7836,13 +7836,13 @@
         <v>694</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7852,13 +7852,13 @@
         <v>705</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7868,33 +7868,33 @@
         <v>716</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C169" s="17">
         <v>13</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -7904,13 +7904,13 @@
         <v>62</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -7920,13 +7920,13 @@
         <v>66</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E171" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -7936,13 +7936,13 @@
         <v>70</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E172" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7954,13 +7954,13 @@
         <v>85</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E173" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7970,13 +7970,13 @@
         <v>88</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E174" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F174" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7986,33 +7986,33 @@
         <v>91</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="B176" s="16" t="s">
         <v>575</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>577</v>
       </c>
       <c r="C176" s="17">
         <v>10</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8022,13 +8022,13 @@
         <v>14</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8038,13 +8038,13 @@
         <v>17</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -8054,13 +8054,13 @@
         <v>76</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -8070,13 +8070,13 @@
         <v>80</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8086,13 +8086,13 @@
         <v>84</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E181" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8102,13 +8102,13 @@
         <v>91</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8118,13 +8118,13 @@
         <v>95</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8134,13 +8134,13 @@
         <v>99</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8150,13 +8150,13 @@
         <v>105</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E185" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8166,13 +8166,13 @@
         <v>109</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8182,13 +8182,13 @@
         <v>113</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F187" s="24" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8198,13 +8198,13 @@
         <v>119</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E188" s="23" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8214,13 +8214,13 @@
         <v>123</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E189" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F189" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8230,13 +8230,13 @@
         <v>127</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E190" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F190" s="24" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8246,13 +8246,13 @@
         <v>133</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E191" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F191" s="24" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8262,13 +8262,13 @@
         <v>137</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E192" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8278,13 +8278,13 @@
         <v>141</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E193" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8294,13 +8294,13 @@
         <v>147</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8310,13 +8310,13 @@
         <v>151</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E195" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8326,13 +8326,13 @@
         <v>155</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E196" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -8342,29 +8342,29 @@
         <v>162</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="25"/>
       <c r="C198" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8374,29 +8374,29 @@
         <v>176</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F199" s="24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="25"/>
       <c r="C200" s="22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -8406,13 +8406,13 @@
         <v>190</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F201" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -8422,13 +8422,13 @@
         <v>194</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F202" s="24" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -8438,45 +8438,45 @@
         <v>198</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" s="29"/>
       <c r="C204" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E204" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" s="29"/>
       <c r="C205" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E205" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8486,13 +8486,13 @@
         <v>231</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8502,29 +8502,29 @@
         <v>235</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" s="29"/>
       <c r="C208" s="49" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E208" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8534,45 +8534,45 @@
         <v>249</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E209" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F209" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" s="29"/>
       <c r="C210" s="22" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E210" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F210" s="24" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" s="29"/>
       <c r="C211" s="22" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E211" s="23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -8582,13 +8582,13 @@
         <v>275</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E212" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F212" s="24" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -8598,13 +8598,13 @@
         <v>279</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F213" s="24" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8614,13 +8614,13 @@
         <v>285</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E214" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F214" s="24" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8630,97 +8630,97 @@
         <v>289</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E215" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F215" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" s="29"/>
       <c r="C216" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E216" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F216" s="24" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" s="29"/>
       <c r="C217" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" s="29"/>
       <c r="C218" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E218" s="23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F218" s="24" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="51"/>
       <c r="B219" s="52"/>
       <c r="C219" s="32" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D219" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F219" s="34" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="35" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C220" s="17">
         <v>5</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E220" s="18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F220" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -8732,13 +8732,13 @@
         <v>12</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E221" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F221" s="24" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -8748,45 +8748,45 @@
         <v>17</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E222" s="23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F222" s="24" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" s="29"/>
       <c r="C223" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E223" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F223" s="24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" s="29"/>
       <c r="C224" s="22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F224" s="24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8796,13 +8796,13 @@
         <v>158</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8814,13 +8814,13 @@
         <v>87</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F226" s="24" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -8830,13 +8830,13 @@
         <v>97</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -8846,29 +8846,29 @@
         <v>110</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F228" s="24" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="25"/>
       <c r="C229" s="22" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E229" s="23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -8880,13 +8880,13 @@
         <v>136</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E230" s="23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F230" s="24" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8896,13 +8896,13 @@
         <v>139</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E231" s="23" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F231" s="24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8912,13 +8912,13 @@
         <v>143</v>
       </c>
       <c r="D232" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E232" s="23" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8928,13 +8928,13 @@
         <v>146</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E233" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F233" s="24" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8944,13 +8944,13 @@
         <v>155</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E234" s="23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F234" s="24" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8960,13 +8960,13 @@
         <v>172</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E235" s="23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F235" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -8976,13 +8976,13 @@
         <v>198</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F236" s="24" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8992,13 +8992,13 @@
         <v>201</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F237" s="24" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -9008,93 +9008,93 @@
         <v>204</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E238" s="23" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F238" s="24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="25"/>
       <c r="C239" s="22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E239" s="23" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="25"/>
       <c r="C240" s="22" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F240" s="24" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="25"/>
       <c r="C241" s="22" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="25"/>
       <c r="C242" s="22" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E242" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F242" s="24" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="25"/>
       <c r="C243" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E243" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9104,13 +9104,13 @@
         <v>327</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E244" s="23" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F244" s="24" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9120,13 +9120,13 @@
         <v>331</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E245" s="23" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9136,33 +9136,33 @@
         <v>335</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E246" s="33" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F246" s="34" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="36" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C247" s="17">
         <v>101</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E247" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F247" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -9174,13 +9174,13 @@
         <v>153</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E248" s="23" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F248" s="24" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -9190,13 +9190,13 @@
         <v>156</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E249" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F249" s="24" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -9208,13 +9208,13 @@
         <v>165</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E250" s="23" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -9226,13 +9226,13 @@
         <v>186</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E251" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F251" s="24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9242,13 +9242,13 @@
         <v>189</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F252" s="24" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9258,13 +9258,13 @@
         <v>197</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9274,49 +9274,49 @@
         <v>245</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F254" s="24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B255" s="21"/>
       <c r="C255" s="22">
         <v>250</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E255" s="23" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F255" s="24" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A256" s="54" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B256" s="21"/>
       <c r="C256" s="22">
         <v>256</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E256" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F256" s="24" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9326,13 +9326,13 @@
         <v>259</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E257" s="23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F257" s="24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9342,31 +9342,31 @@
         <v>262</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E258" s="23" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F258" s="24" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A259" s="54" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B259" s="21"/>
       <c r="C259" s="22">
         <v>265</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E259" s="23" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F259" s="24" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9378,13 +9378,13 @@
         <v>280</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E260" s="23" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9394,13 +9394,13 @@
         <v>300</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E261" s="23" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9410,31 +9410,31 @@
         <v>303</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E262" s="23" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F262" s="24" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A263" s="54" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B263" s="21"/>
       <c r="C263" s="22">
         <v>308</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E263" s="23" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F263" s="24" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9444,13 +9444,13 @@
         <v>325</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E264" s="23" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9460,13 +9460,13 @@
         <v>353</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E265" s="23" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F265" s="24" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9476,13 +9476,13 @@
         <v>381</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E266" s="23" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F266" s="24" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -9494,51 +9494,51 @@
         <v>399</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E267" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F267" s="24" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="55" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B268" s="31"/>
       <c r="C268" s="32">
         <v>465</v>
       </c>
       <c r="D268" s="33" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E268" s="33" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F268" s="34" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="36" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C269" s="17">
         <v>32</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E269" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="F269" s="19" t="s">
         <v>880</v>
-      </c>
-      <c r="F269" s="19" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9548,33 +9548,33 @@
         <v>38</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E270" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="F270" s="34" t="s">
         <v>881</v>
-      </c>
-      <c r="F270" s="34" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="36" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C271" s="17">
         <v>49</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F271" s="19" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9584,13 +9584,13 @@
         <v>52</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E272" s="23" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F272" s="24" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9600,13 +9600,13 @@
         <v>60</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E273" s="23" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F273" s="24" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9616,61 +9616,61 @@
         <v>68</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E274" s="23" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F274" s="24" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="25"/>
       <c r="C275" s="22" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E275" s="23" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20"/>
       <c r="B276" s="25"/>
       <c r="C276" s="22" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E276" s="23" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="28"/>
       <c r="B277" s="29"/>
       <c r="C277" s="22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E277" s="23" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F277" s="24" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9680,45 +9680,45 @@
         <v>165</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E278" s="23" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A279" s="28"/>
       <c r="B279" s="29"/>
       <c r="C279" s="22" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E279" s="23" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="28"/>
       <c r="B280" s="29"/>
       <c r="C280" s="22" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E280" s="23" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9730,13 +9730,13 @@
         <v>145</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E281" s="23" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9746,13 +9746,13 @@
         <v>148</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E282" s="23" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9762,13 +9762,13 @@
         <v>151</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E283" s="23" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9778,13 +9778,13 @@
         <v>154</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E284" s="23" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -9794,13 +9794,13 @@
         <v>161</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E285" s="23" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -9810,141 +9810,141 @@
         <v>225</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E286" s="23" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F286" s="24" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="25"/>
       <c r="C287" s="22" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E287" s="23" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20"/>
       <c r="B288" s="25"/>
       <c r="C288" s="22" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E288" s="23" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="25"/>
       <c r="C289" s="22" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E289" s="23" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A290" s="20"/>
       <c r="B290" s="25"/>
       <c r="C290" s="22" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E290" s="23" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="25"/>
       <c r="C291" s="22" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D291" s="23" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E291" s="23" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F291" s="24" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A292" s="20"/>
       <c r="B292" s="25"/>
       <c r="C292" s="22" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D292" s="23" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E292" s="23" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="25"/>
       <c r="C293" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D293" s="23" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E293" s="23" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20"/>
       <c r="B294" s="25"/>
       <c r="C294" s="22" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D294" s="23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E294" s="23" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F294" s="24" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9956,13 +9956,13 @@
         <v>320</v>
       </c>
       <c r="D295" s="23" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E295" s="23" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F295" s="24" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9972,13 +9972,13 @@
         <v>333</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E296" s="23" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F296" s="24" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9988,13 +9988,13 @@
         <v>336</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E297" s="23" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10004,13 +10004,13 @@
         <v>345</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E298" s="23" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -10020,13 +10020,13 @@
         <v>362</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E299" s="23" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F299" s="24" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -10036,47 +10036,47 @@
         <v>402</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E300" s="23" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F300" s="24" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="25"/>
       <c r="C301" s="22" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F301" s="24" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="56" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B302" s="21"/>
       <c r="C302" s="22">
         <v>415</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E302" s="23" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10086,13 +10086,13 @@
         <v>418</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F303" s="24" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10102,13 +10102,13 @@
         <v>421</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E304" s="23" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F304" s="24" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10118,13 +10118,13 @@
         <v>424</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E305" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F305" s="24" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10134,13 +10134,13 @@
         <v>427</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E306" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F306" s="24" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10150,13 +10150,13 @@
         <v>430</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E307" s="23" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F307" s="24" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10166,13 +10166,13 @@
         <v>433</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E308" s="23" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F308" s="24" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10182,13 +10182,13 @@
         <v>436</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E309" s="23" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F309" s="24" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10198,13 +10198,13 @@
         <v>439</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F310" s="24" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -10214,13 +10214,13 @@
         <v>446</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E311" s="23" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F311" s="24" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -10230,13 +10230,13 @@
         <v>454</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F312" s="24" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10246,29 +10246,29 @@
         <v>470</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E313" s="23" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F313" s="24" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="25"/>
       <c r="C314" s="22" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E314" s="23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F314" s="24" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -10278,13 +10278,13 @@
         <v>489</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E315" s="23" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F315" s="24" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10294,13 +10294,13 @@
         <v>493</v>
       </c>
       <c r="D316" s="23" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E316" s="23" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F316" s="24" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10310,29 +10310,29 @@
         <v>497</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E317" s="23" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F317" s="24" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="25"/>
       <c r="C318" s="22" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F318" s="24" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -10344,29 +10344,29 @@
         <v>532</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F319" s="24" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="B320" s="25"/>
       <c r="C320" s="22" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D320" s="23" t="s">
         <v>163</v>
       </c>
       <c r="E320" s="23" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F320" s="24" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10378,13 +10378,13 @@
         <v>558</v>
       </c>
       <c r="D321" s="23" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E321" s="23" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F321" s="24" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10394,13 +10394,13 @@
         <v>561</v>
       </c>
       <c r="D322" s="23" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E322" s="23" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F322" s="24" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10410,13 +10410,13 @@
         <v>564</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E323" s="23" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F323" s="24" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10426,13 +10426,13 @@
         <v>567</v>
       </c>
       <c r="D324" s="23" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E324" s="23" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F324" s="24" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10442,13 +10442,13 @@
         <v>583</v>
       </c>
       <c r="D325" s="23" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E325" s="23" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F325" s="24" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10458,33 +10458,33 @@
         <v>597</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E326" s="33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F326" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" s="66" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C327" s="17">
         <v>9</v>
       </c>
       <c r="D327" s="18" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E327" s="18" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F327" s="19" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10494,13 +10494,13 @@
         <v>12</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E328" s="23" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F328" s="24" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10510,31 +10510,31 @@
         <v>15</v>
       </c>
       <c r="D329" s="23" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E329" s="23" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F329" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="67" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B330" s="25"/>
       <c r="C330" s="22" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D330" s="23" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E330" s="23" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F330" s="24" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10544,13 +10544,13 @@
         <v>210</v>
       </c>
       <c r="D331" s="23" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E331" s="23" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F331" s="24" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10560,13 +10560,13 @@
         <v>78</v>
       </c>
       <c r="D332" s="23" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E332" s="23" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F332" s="24" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10576,13 +10576,13 @@
         <v>82</v>
       </c>
       <c r="D333" s="23" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E333" s="23" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F333" s="24" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10592,49 +10592,49 @@
         <v>86</v>
       </c>
       <c r="D334" s="23" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E334" s="23" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F334" s="24" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="58"/>
       <c r="B335" s="59"/>
       <c r="C335" s="60" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D335" s="61" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E335" s="61" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F335" s="68" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="67" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B336" s="25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C336" s="22" t="s">
         <v>1098</v>
       </c>
-      <c r="C336" s="22" t="s">
-        <v>1100</v>
-      </c>
       <c r="D336" s="23" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E336" s="23" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F336" s="24" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10644,13 +10644,13 @@
         <v>44</v>
       </c>
       <c r="D337" s="23" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E337" s="23" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F337" s="24" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10660,13 +10660,13 @@
         <v>48</v>
       </c>
       <c r="D338" s="23" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E338" s="23" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F338" s="24" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10676,33 +10676,33 @@
         <v>52</v>
       </c>
       <c r="D339" s="61" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E339" s="61" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F339" s="68" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A340" s="70" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B340" s="63" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C340" s="64">
         <v>9</v>
       </c>
       <c r="D340" s="65" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E340" s="65" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F340" s="71" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -10712,13 +10712,13 @@
         <v>21</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E341" s="23" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F341" s="24" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -10728,13 +10728,13 @@
         <v>25</v>
       </c>
       <c r="D342" s="23" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E342" s="23" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F342" s="24" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -10744,13 +10744,13 @@
         <v>29</v>
       </c>
       <c r="D343" s="23" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E343" s="23" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F343" s="24" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10762,29 +10762,29 @@
         <v>51</v>
       </c>
       <c r="D344" s="23" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E344" s="23" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F344" s="24" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
       <c r="B345" s="25"/>
       <c r="C345" s="22" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D345" s="23" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E345" s="23" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F345" s="24" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10796,13 +10796,13 @@
         <v>80</v>
       </c>
       <c r="D346" s="23" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E346" s="23" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F346" s="24" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10812,31 +10812,31 @@
         <v>88</v>
       </c>
       <c r="D347" s="61" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E347" s="61" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F347" s="68" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="73" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B348" s="21"/>
       <c r="C348" s="22">
         <v>10</v>
       </c>
       <c r="D348" s="23" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E348" s="23" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F348" s="24" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -10846,13 +10846,13 @@
         <v>44</v>
       </c>
       <c r="D349" s="23" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E349" s="23" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F349" s="24" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -10862,51 +10862,51 @@
         <v>47</v>
       </c>
       <c r="D350" s="23" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E350" s="23" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F350" s="24" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="55" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B351" s="31"/>
       <c r="C351" s="32">
         <v>62</v>
       </c>
       <c r="D351" s="33" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E351" s="33" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F351" s="34" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A352" s="37" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B352" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C352" s="17">
         <v>15</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E352" s="18" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F352" s="19" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -10916,13 +10916,13 @@
         <v>19</v>
       </c>
       <c r="D353" s="23" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E353" s="23" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F353" s="24" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -10932,13 +10932,13 @@
         <v>23</v>
       </c>
       <c r="D354" s="23" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E354" s="23" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F354" s="24" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -10950,13 +10950,13 @@
         <v>40</v>
       </c>
       <c r="D355" s="23" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E355" s="23" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F355" s="24" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10966,33 +10966,33 @@
         <v>55</v>
       </c>
       <c r="D356" s="33" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E356" s="33" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F356" s="34" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A357" s="36" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B357" s="16" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C357" s="17">
         <v>13</v>
       </c>
       <c r="D357" s="18" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E357" s="18" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F357" s="19" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -11004,13 +11004,13 @@
         <v>16</v>
       </c>
       <c r="D358" s="23" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E358" s="23" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F358" s="24" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11020,13 +11020,13 @@
         <v>28</v>
       </c>
       <c r="D359" s="23" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E359" s="23" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F359" s="24" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -11036,33 +11036,33 @@
         <v>33</v>
       </c>
       <c r="D360" s="33" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E360" s="33" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F360" s="34" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="36" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B361" s="16" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C361" s="17">
         <v>13</v>
       </c>
       <c r="D361" s="18" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E361" s="18" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F361" s="19" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11074,31 +11074,31 @@
         <v>26</v>
       </c>
       <c r="D362" s="23" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E362" s="23" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F362" s="24" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B363" s="21"/>
       <c r="C363" s="22">
         <v>48</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E363" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F363" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -11108,13 +11108,13 @@
         <v>51</v>
       </c>
       <c r="D364" s="23" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E364" s="23" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F364" s="24" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -11124,13 +11124,13 @@
         <v>54</v>
       </c>
       <c r="D365" s="23" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E365" s="23" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F365" s="24" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11140,13 +11140,13 @@
         <v>83</v>
       </c>
       <c r="D366" s="23" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E366" s="23" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F366" s="24" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11156,13 +11156,13 @@
         <v>92</v>
       </c>
       <c r="D367" s="23" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E367" s="23" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F367" s="24" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11172,31 +11172,31 @@
         <v>101</v>
       </c>
       <c r="D368" s="23" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E368" s="23" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F368" s="24" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A369" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B369" s="21"/>
       <c r="C369" s="22">
         <v>112</v>
       </c>
       <c r="D369" s="23" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E369" s="23" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F369" s="24" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -11206,33 +11206,33 @@
         <v>115</v>
       </c>
       <c r="D370" s="33" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E370" s="33" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F370" s="34" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A371" s="74" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B371" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C371" s="17">
         <v>9</v>
       </c>
       <c r="D371" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E371" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F371" s="19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -11242,13 +11242,13 @@
         <v>52</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E372" s="23" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F372" s="24" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -11258,13 +11258,13 @@
         <v>56</v>
       </c>
       <c r="D373" s="23" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E373" s="23" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F373" s="24" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -11274,13 +11274,13 @@
         <v>60</v>
       </c>
       <c r="D374" s="23" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E374" s="23" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F374" s="24" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11290,13 +11290,13 @@
         <v>94</v>
       </c>
       <c r="D375" s="23" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E375" s="23" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F375" s="24" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11306,13 +11306,13 @@
         <v>98</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E376" s="23" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F376" s="24" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11322,13 +11322,13 @@
         <v>102</v>
       </c>
       <c r="D377" s="23" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E377" s="23" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F377" s="24" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -11338,13 +11338,13 @@
         <v>108</v>
       </c>
       <c r="D378" s="23" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E378" s="23" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F378" s="24" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11354,13 +11354,13 @@
         <v>112</v>
       </c>
       <c r="D379" s="23" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E379" s="23" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F379" s="24" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11370,51 +11370,51 @@
         <v>116</v>
       </c>
       <c r="D380" s="33" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E380" s="33" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="F380" s="34" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A381" s="36" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B381" s="16" t="s">
         <v>1179</v>
-      </c>
-      <c r="B381" s="16" t="s">
-        <v>1181</v>
       </c>
       <c r="C381" s="17">
         <v>14</v>
       </c>
       <c r="D381" s="18" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E381" s="18" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F381" s="19" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A382" s="27" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B382" s="21"/>
       <c r="C382" s="22">
         <v>17</v>
       </c>
       <c r="D382" s="23" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E382" s="23" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F382" s="24" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11424,13 +11424,13 @@
         <v>20</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E383" s="23" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F383" s="24" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11440,13 +11440,13 @@
         <v>23</v>
       </c>
       <c r="D384" s="23" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E384" s="23" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F384" s="24" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11456,13 +11456,13 @@
         <v>26</v>
       </c>
       <c r="D385" s="23" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E385" s="23" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F385" s="24" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11472,13 +11472,13 @@
         <v>29</v>
       </c>
       <c r="D386" s="23" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E386" s="23" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F386" s="24" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -11488,13 +11488,13 @@
         <v>32</v>
       </c>
       <c r="D387" s="23" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E387" s="23" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F387" s="24" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11504,13 +11504,13 @@
         <v>47</v>
       </c>
       <c r="D388" s="23" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E388" s="23" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F388" s="24" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11520,13 +11520,13 @@
         <v>55</v>
       </c>
       <c r="D389" s="23" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E389" s="23" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F389" s="24" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11536,13 +11536,13 @@
         <v>63</v>
       </c>
       <c r="D390" s="23" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E390" s="23" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F390" s="24" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11552,29 +11552,29 @@
         <v>71</v>
       </c>
       <c r="D391" s="23" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E391" s="23" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F391" s="24" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A392" s="20"/>
       <c r="B392" s="21"/>
       <c r="C392" s="22" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D392" s="23" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E392" s="23" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F392" s="24" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11584,31 +11584,31 @@
         <v>96</v>
       </c>
       <c r="D393" s="23" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E393" s="23" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F393" s="24" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A394" s="27" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B394" s="21"/>
       <c r="C394" s="22">
         <v>103</v>
       </c>
       <c r="D394" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E394" s="23" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F394" s="24" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -11618,13 +11618,13 @@
         <v>106</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E395" s="23" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F395" s="24" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11634,13 +11634,13 @@
         <v>155</v>
       </c>
       <c r="D396" s="23" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E396" s="23" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F396" s="24" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11650,13 +11650,13 @@
         <v>159</v>
       </c>
       <c r="D397" s="23" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E397" s="23" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F397" s="24" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11666,13 +11666,13 @@
         <v>163</v>
       </c>
       <c r="D398" s="23" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E398" s="23" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F398" s="24" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -11684,13 +11684,13 @@
         <v>169</v>
       </c>
       <c r="D399" s="23" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E399" s="23" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F399" s="24" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11700,29 +11700,29 @@
         <v>195</v>
       </c>
       <c r="D400" s="23" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E400" s="23" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F400" s="24" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="20"/>
       <c r="B401" s="21"/>
       <c r="C401" s="22" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E401" s="23" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F401" s="24" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -11732,13 +11732,13 @@
         <v>221</v>
       </c>
       <c r="D402" s="23" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E402" s="23" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F402" s="24" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11750,13 +11750,13 @@
         <v>233</v>
       </c>
       <c r="D403" s="23" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E403" s="23" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F403" s="24" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11766,13 +11766,13 @@
         <v>236</v>
       </c>
       <c r="D404" s="23" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E404" s="23" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F404" s="24" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11782,13 +11782,13 @@
         <v>258</v>
       </c>
       <c r="D405" s="23" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E405" s="23" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F405" s="24" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -11798,13 +11798,13 @@
         <v>282</v>
       </c>
       <c r="D406" s="23" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E406" s="23" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F406" s="24" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -11814,13 +11814,13 @@
         <v>286</v>
       </c>
       <c r="D407" s="23" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E407" s="23" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F407" s="24" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -11830,13 +11830,13 @@
         <v>290</v>
       </c>
       <c r="D408" s="23" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E408" s="23" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F408" s="24" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11848,49 +11848,49 @@
         <v>301</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E409" s="23" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F409" s="24" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="39"/>
       <c r="B410" s="57"/>
       <c r="C410" s="32" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D410" s="33" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E410" s="33" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F410" s="34" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A411" s="74" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C411" s="17">
         <v>9</v>
       </c>
       <c r="D411" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E411" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F411" s="19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -11900,13 +11900,13 @@
         <v>40</v>
       </c>
       <c r="D412" s="23" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E412" s="23" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F412" s="24" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -11916,13 +11916,13 @@
         <v>44</v>
       </c>
       <c r="D413" s="23" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E413" s="23" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F413" s="24" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -11932,13 +11932,13 @@
         <v>48</v>
       </c>
       <c r="D414" s="23" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E414" s="23" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F414" s="24" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11948,13 +11948,13 @@
         <v>54</v>
       </c>
       <c r="D415" s="23" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E415" s="23" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F415" s="24" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11964,13 +11964,13 @@
         <v>58</v>
       </c>
       <c r="D416" s="23" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E416" s="23" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F416" s="24" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11980,13 +11980,13 @@
         <v>62</v>
       </c>
       <c r="D417" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E417" s="23" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F417" s="24" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11996,13 +11996,13 @@
         <v>68</v>
       </c>
       <c r="D418" s="23" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E418" s="23" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F418" s="24" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12012,13 +12012,13 @@
         <v>72</v>
       </c>
       <c r="D419" s="23" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E419" s="23" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F419" s="24" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12028,13 +12028,13 @@
         <v>76</v>
       </c>
       <c r="D420" s="23" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E420" s="23" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F420" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -12044,13 +12044,13 @@
         <v>82</v>
       </c>
       <c r="D421" s="23" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E421" s="23" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F421" s="24" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12060,13 +12060,13 @@
         <v>86</v>
       </c>
       <c r="D422" s="23" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E422" s="23" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F422" s="24" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12076,13 +12076,13 @@
         <v>90</v>
       </c>
       <c r="D423" s="23" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E423" s="23" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F423" s="24" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12092,13 +12092,13 @@
         <v>96</v>
       </c>
       <c r="D424" s="23" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E424" s="23" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F424" s="24" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12108,13 +12108,13 @@
         <v>100</v>
       </c>
       <c r="D425" s="23" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E425" s="23" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F425" s="24" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12124,13 +12124,13 @@
         <v>104</v>
       </c>
       <c r="D426" s="23" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E426" s="23" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F426" s="24" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12140,13 +12140,13 @@
         <v>110</v>
       </c>
       <c r="D427" s="23" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E427" s="23" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F427" s="24" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12156,13 +12156,13 @@
         <v>114</v>
       </c>
       <c r="D428" s="23" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E428" s="23" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F428" s="24" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12172,13 +12172,13 @@
         <v>118</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E429" s="23" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F429" s="24" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -12188,13 +12188,13 @@
         <v>328</v>
       </c>
       <c r="D430" s="23" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E430" s="23" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F430" s="24" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12204,29 +12204,29 @@
         <v>140</v>
       </c>
       <c r="D431" s="23" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E431" s="23" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F431" s="24" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A432" s="20"/>
       <c r="B432" s="25"/>
       <c r="C432" s="22" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D432" s="23" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E432" s="23" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F432" s="24" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -12236,13 +12236,13 @@
         <v>169</v>
       </c>
       <c r="D433" s="23" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E433" s="23" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F433" s="24" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12252,13 +12252,13 @@
         <v>162</v>
       </c>
       <c r="D434" s="33" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E434" s="33" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F434" s="34" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
   </sheetData>
